--- a/example_base.xlsx
+++ b/example_base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programowanie\SEM_5_SWD\Trip-selection-support-system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1de75ab757d4e5e4/Pulpit/studia/swd/projekt/Trip-selection-support-system/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067FD9B5-9A6A-4DED-AC52-B537685AD645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{067FD9B5-9A6A-4DED-AC52-B537685AD645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CBF99A3-0BBA-4867-A38D-339A82862D5A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82038EAF-E625-447E-8475-976217D15C54}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{82038EAF-E625-447E-8475-976217D15C54}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="185">
   <si>
     <t>Miasto</t>
   </si>
@@ -161,12 +161,6 @@
     <t xml:space="preserve"> Zjednoczone Emiraty Arabskie</t>
   </si>
   <si>
-    <t>Moskwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rosja</t>
-  </si>
-  <si>
     <t>Meksyk</t>
   </si>
   <si>
@@ -401,12 +395,6 @@
     <t>Las Vegas</t>
   </si>
   <si>
-    <t>Kijów</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ukraina</t>
-  </si>
-  <si>
     <t>Santiago de Compostela</t>
   </si>
   <si>
@@ -534,6 +522,87 @@
   </si>
   <si>
     <t>Panstwo</t>
+  </si>
+  <si>
+    <t>Minimalny koszt podróźy w dwie strony</t>
+  </si>
+  <si>
+    <t>Maskat</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Gdańsk</t>
+  </si>
+  <si>
+    <t>Polska</t>
+  </si>
+  <si>
+    <t>Kinszasa</t>
+  </si>
+  <si>
+    <t>DRK</t>
+  </si>
+  <si>
+    <t>Caracas</t>
+  </si>
+  <si>
+    <t>Wenezuela</t>
+  </si>
+  <si>
+    <t>Santo Domingo</t>
+  </si>
+  <si>
+    <t>Dominikana</t>
+  </si>
+  <si>
+    <t>Tajpej</t>
+  </si>
+  <si>
+    <t>Tajwan</t>
+  </si>
+  <si>
+    <t>Teheran</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Astana</t>
+  </si>
+  <si>
+    <t>Kazachstan</t>
+  </si>
+  <si>
+    <t>Baku</t>
+  </si>
+  <si>
+    <t>Azerbejdżan</t>
+  </si>
+  <si>
+    <t>Antanarywa</t>
+  </si>
+  <si>
+    <t>Madagaskar</t>
+  </si>
+  <si>
+    <t>La Paz</t>
+  </si>
+  <si>
+    <t>Boliwia</t>
+  </si>
+  <si>
+    <t>Pafos</t>
+  </si>
+  <si>
+    <t>Cypr</t>
+  </si>
+  <si>
+    <t>Valetta</t>
+  </si>
+  <si>
+    <t>Malta</t>
   </si>
 </sst>
 </file>
@@ -578,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -586,6 +655,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,28 +993,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D82785-369F-4861-81B1-363C2DA20361}">
-  <dimension ref="A1:M111"/>
+  <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P106" sqref="P106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.54296875" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
@@ -950,38 +1022,41 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -989,40 +1064,43 @@
         <v>500</v>
       </c>
       <c r="C2">
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="D2">
+        <v>1500</v>
+      </c>
+      <c r="E2">
         <v>85</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>90</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>85</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>95</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>80</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>85</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>90</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>80</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>85</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1030,40 +1108,43 @@
         <v>550</v>
       </c>
       <c r="C3">
-        <v>720</v>
+        <v>1440</v>
       </c>
       <c r="D3">
+        <v>6000</v>
+      </c>
+      <c r="E3">
         <v>90</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>95</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>90</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>100</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>85</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>80</v>
-      </c>
-      <c r="J3">
-        <v>85</v>
       </c>
       <c r="K3">
         <v>85</v>
       </c>
       <c r="L3">
+        <v>85</v>
+      </c>
+      <c r="M3">
         <v>90</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1071,40 +1152,43 @@
         <v>450</v>
       </c>
       <c r="C4">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="D4">
+        <v>800</v>
+      </c>
+      <c r="E4">
         <v>80</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>85</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>80</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>95</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>75</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>80</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>95</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>85</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>90</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1112,40 +1196,43 @@
         <v>400</v>
       </c>
       <c r="C5">
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="D5">
+        <v>400</v>
+      </c>
+      <c r="E5">
         <v>75</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>80</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>75</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>90</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>70</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>75</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>85</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>80</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>85</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1153,40 +1240,43 @@
         <v>600</v>
       </c>
       <c r="C6">
-        <v>1200</v>
+        <v>2400</v>
       </c>
       <c r="D6">
+        <v>10000</v>
+      </c>
+      <c r="E6">
         <v>95</v>
-      </c>
-      <c r="E6">
-        <v>90</v>
       </c>
       <c r="F6">
         <v>90</v>
       </c>
       <c r="G6">
+        <v>90</v>
+      </c>
+      <c r="H6">
         <v>85</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>80</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>85</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>80</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>75</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>80</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1194,40 +1284,43 @@
         <v>350</v>
       </c>
       <c r="C7">
-        <v>840</v>
+        <v>1680</v>
       </c>
       <c r="D7">
+        <v>6000</v>
+      </c>
+      <c r="E7">
         <v>70</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>75</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>70</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>80</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>65</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>70</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>75</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>70</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>75</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1235,40 +1328,43 @@
         <v>400</v>
       </c>
       <c r="C8">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D8">
+        <v>400</v>
+      </c>
+      <c r="E8">
         <v>80</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>85</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>80</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>90</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>75</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>80</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>85</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>80</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>85</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1276,40 +1372,43 @@
         <v>300</v>
       </c>
       <c r="C9">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="D9">
+        <v>2800</v>
+      </c>
+      <c r="E9">
         <v>60</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>65</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>60</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>75</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>55</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>60</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>65</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>60</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>70</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1317,40 +1416,43 @@
         <v>450</v>
       </c>
       <c r="C10">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="D10">
-        <v>70</v>
+        <v>8000</v>
       </c>
       <c r="E10">
         <v>70</v>
       </c>
       <c r="F10">
+        <v>70</v>
+      </c>
+      <c r="G10">
         <v>65</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>80</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>65</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>70</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>75</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>65</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>80</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1358,40 +1460,43 @@
         <v>250</v>
       </c>
       <c r="C11">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="D11">
+        <v>2000</v>
+      </c>
+      <c r="E11">
         <v>50</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>55</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>50</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>65</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>45</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>50</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>55</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>50</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>60</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1399,40 +1504,43 @@
         <v>380</v>
       </c>
       <c r="C12">
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="D12">
+        <v>600</v>
+      </c>
+      <c r="E12">
         <v>77</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>82</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>78</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>91</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>74</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>79</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>87</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>83</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>88</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1440,1826 +1548,1958 @@
         <v>600</v>
       </c>
       <c r="C13">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="D13">
+        <v>2200</v>
+      </c>
+      <c r="E13">
         <v>88</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>93</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>89</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>85</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>82</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>86</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>81</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>76</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>81</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="C14">
-        <v>240</v>
+        <v>1320</v>
       </c>
       <c r="D14">
+        <v>4500</v>
+      </c>
+      <c r="E14">
+        <v>60</v>
+      </c>
+      <c r="F14">
         <v>65</v>
       </c>
-      <c r="E14">
-        <v>70</v>
-      </c>
-      <c r="F14">
-        <v>66</v>
-      </c>
       <c r="G14">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H14">
+        <v>77</v>
+      </c>
+      <c r="I14">
+        <v>59</v>
+      </c>
+      <c r="J14">
+        <v>64</v>
+      </c>
+      <c r="K14">
         <v>68</v>
       </c>
-      <c r="I14">
-        <v>73</v>
-      </c>
-      <c r="J14">
-        <v>70</v>
-      </c>
-      <c r="K14">
-        <v>65</v>
-      </c>
       <c r="L14">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M14">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="N14">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>350</v>
+        <v>550</v>
       </c>
       <c r="C15">
-        <v>660</v>
+        <v>1440</v>
       </c>
       <c r="D15">
-        <v>60</v>
+        <v>3600</v>
       </c>
       <c r="E15">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F15">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="G15">
+        <v>91</v>
+      </c>
+      <c r="H15">
+        <v>86</v>
+      </c>
+      <c r="I15">
+        <v>81</v>
+      </c>
+      <c r="J15">
+        <v>85</v>
+      </c>
+      <c r="K15">
+        <v>80</v>
+      </c>
+      <c r="L15">
         <v>77</v>
       </c>
-      <c r="H15">
-        <v>59</v>
-      </c>
-      <c r="I15">
-        <v>64</v>
-      </c>
-      <c r="J15">
-        <v>68</v>
-      </c>
-      <c r="K15">
-        <v>63</v>
-      </c>
-      <c r="L15">
-        <v>78</v>
-      </c>
       <c r="M15">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="N15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="C16">
-        <v>720</v>
+        <v>1080</v>
       </c>
       <c r="D16">
-        <v>90</v>
+        <v>3700</v>
       </c>
       <c r="E16">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F16">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G16">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H16">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I16">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J16">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K16">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="L16">
         <v>82</v>
       </c>
       <c r="M16">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="N16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C17">
-        <v>540</v>
+        <v>1080</v>
       </c>
       <c r="D17">
-        <v>83</v>
+        <v>2600</v>
       </c>
       <c r="E17">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="F17">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G17">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="H17">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I17">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J17">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K17">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L17">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="M17">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="N17">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C18">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="D18">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="E18">
+        <v>79</v>
+      </c>
+      <c r="F18">
+        <v>84</v>
+      </c>
+      <c r="G18">
         <v>80</v>
       </c>
-      <c r="F18">
+      <c r="H18">
+        <v>93</v>
+      </c>
+      <c r="I18">
         <v>76</v>
       </c>
-      <c r="G18">
+      <c r="J18">
+        <v>81</v>
+      </c>
+      <c r="K18">
+        <v>86</v>
+      </c>
+      <c r="L18">
         <v>82</v>
       </c>
-      <c r="H18">
-        <v>78</v>
-      </c>
-      <c r="I18">
-        <v>82</v>
-      </c>
-      <c r="J18">
-        <v>77</v>
-      </c>
-      <c r="K18">
-        <v>72</v>
-      </c>
-      <c r="L18">
-        <v>77</v>
-      </c>
       <c r="M18">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="N18">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="C19">
-        <v>110</v>
+        <v>1680</v>
       </c>
       <c r="D19">
-        <v>79</v>
+        <v>7500</v>
       </c>
       <c r="E19">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F19">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G19">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="H19">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I19">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="J19">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K19">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="L19">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="M19">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="N19">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="C20">
-        <v>840</v>
+        <v>360</v>
       </c>
       <c r="D20">
-        <v>68</v>
+        <v>1000</v>
       </c>
       <c r="E20">
+        <v>72</v>
+      </c>
+      <c r="F20">
+        <v>77</v>
+      </c>
+      <c r="G20">
         <v>73</v>
       </c>
-      <c r="F20">
+      <c r="H20">
+        <v>78</v>
+      </c>
+      <c r="I20">
         <v>69</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>74</v>
       </c>
-      <c r="H20">
-        <v>70</v>
-      </c>
-      <c r="I20">
+      <c r="K20">
+        <v>79</v>
+      </c>
+      <c r="L20">
         <v>75</v>
       </c>
-      <c r="J20">
-        <v>70</v>
-      </c>
-      <c r="K20">
-        <v>68</v>
-      </c>
-      <c r="L20">
-        <v>73</v>
-      </c>
       <c r="M20">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="N20">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>330</v>
+        <v>550</v>
       </c>
       <c r="C21">
-        <v>180</v>
+        <v>1320</v>
       </c>
       <c r="D21">
-        <v>72</v>
+        <v>6000</v>
       </c>
       <c r="E21">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F21">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G21">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H21">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="I21">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J21">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K21">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="L21">
+        <v>88</v>
+      </c>
+      <c r="M21">
+        <v>92</v>
+      </c>
+      <c r="N21">
         <v>80</v>
       </c>
-      <c r="M21">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>550</v>
+        <v>280</v>
       </c>
       <c r="C22">
-        <v>660</v>
+        <v>1440</v>
       </c>
       <c r="D22">
-        <v>82</v>
+        <v>3000</v>
       </c>
       <c r="E22">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="F22">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="G22">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="H22">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I22">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="J22">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="K22">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="L22">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="M22">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="N22">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C23">
-        <v>720</v>
+        <v>1560</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>5400</v>
       </c>
       <c r="E23">
         <v>60</v>
       </c>
       <c r="F23">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G23">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H23">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="I23">
+        <v>58</v>
+      </c>
+      <c r="J23">
+        <v>62</v>
+      </c>
+      <c r="K23">
+        <v>67</v>
+      </c>
+      <c r="L23">
+        <v>63</v>
+      </c>
+      <c r="M23">
+        <v>68</v>
+      </c>
+      <c r="N23">
         <v>55</v>
       </c>
-      <c r="J23">
-        <v>60</v>
-      </c>
-      <c r="K23">
-        <v>55</v>
-      </c>
-      <c r="L23">
-        <v>65</v>
-      </c>
-      <c r="M23">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
+        <v>450</v>
+      </c>
+      <c r="C24">
+        <v>420</v>
+      </c>
+      <c r="D24">
         <v>300</v>
       </c>
-      <c r="C24">
-        <v>780</v>
-      </c>
-      <c r="D24">
-        <v>60</v>
-      </c>
       <c r="E24">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F24">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="G24">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H24">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="I24">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="J24">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="K24">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="L24">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="M24">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="N24">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="C25">
-        <v>210</v>
+        <v>1740</v>
       </c>
       <c r="D25">
-        <v>80</v>
+        <v>8500</v>
       </c>
       <c r="E25">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F25">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G25">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H25">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I25">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="J25">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="K25">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="L25">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="M25">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="N25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>400</v>
+        <v>480</v>
       </c>
       <c r="C26">
-        <v>870</v>
+        <v>240</v>
       </c>
       <c r="D26">
-        <v>65</v>
+        <v>300</v>
       </c>
       <c r="E26">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F26">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G26">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H26">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="I26">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="J26">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="K26">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="L26">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="M26">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="N26">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="C27">
-        <v>120</v>
+        <v>1320</v>
       </c>
       <c r="D27">
-        <v>85</v>
+        <v>3200</v>
       </c>
       <c r="E27">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="F27">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G27">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="H27">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I27">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="J27">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K27">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="L27">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="M27">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="N27">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="C28">
-        <v>660</v>
+        <v>300</v>
       </c>
       <c r="D28">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="E28">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F28">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G28">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H28">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I28">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J28">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K28">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="L28">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="M28">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="N28">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C29">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="D29">
-        <v>72</v>
+        <v>1600</v>
       </c>
       <c r="E29">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F29">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G29">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H29">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I29">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J29">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K29">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="L29">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M29">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="N29">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="C30">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D30">
+        <v>250</v>
+      </c>
+      <c r="E30">
+        <v>68</v>
+      </c>
+      <c r="F30">
+        <v>73</v>
+      </c>
+      <c r="G30">
+        <v>69</v>
+      </c>
+      <c r="H30">
         <v>74</v>
       </c>
-      <c r="E30">
-        <v>79</v>
-      </c>
-      <c r="F30">
+      <c r="I30">
+        <v>70</v>
+      </c>
+      <c r="J30">
         <v>75</v>
       </c>
-      <c r="G30">
+      <c r="K30">
         <v>80</v>
       </c>
-      <c r="H30">
+      <c r="L30">
         <v>76</v>
       </c>
-      <c r="I30">
+      <c r="M30">
         <v>81</v>
       </c>
-      <c r="J30">
-        <v>86</v>
-      </c>
-      <c r="K30">
-        <v>82</v>
-      </c>
-      <c r="L30">
-        <v>87</v>
-      </c>
-      <c r="M30">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="C31">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="D31">
+        <v>500</v>
+      </c>
+      <c r="E31">
+        <v>66</v>
+      </c>
+      <c r="F31">
+        <v>71</v>
+      </c>
+      <c r="G31">
+        <v>67</v>
+      </c>
+      <c r="H31">
+        <v>72</v>
+      </c>
+      <c r="I31">
         <v>68</v>
       </c>
-      <c r="E31">
+      <c r="J31">
         <v>73</v>
       </c>
-      <c r="F31">
-        <v>69</v>
-      </c>
-      <c r="G31">
+      <c r="K31">
+        <v>78</v>
+      </c>
+      <c r="L31">
         <v>74</v>
       </c>
-      <c r="H31">
-        <v>70</v>
-      </c>
-      <c r="I31">
-        <v>75</v>
-      </c>
-      <c r="J31">
-        <v>80</v>
-      </c>
-      <c r="K31">
-        <v>76</v>
-      </c>
-      <c r="L31">
-        <v>81</v>
-      </c>
       <c r="M31">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="N31">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>320</v>
+        <v>500</v>
       </c>
       <c r="C32">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="D32">
-        <v>66</v>
+        <v>300</v>
       </c>
       <c r="E32">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F32">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="G32">
+        <v>84</v>
+      </c>
+      <c r="H32">
+        <v>89</v>
+      </c>
+      <c r="I32">
+        <v>85</v>
+      </c>
+      <c r="J32">
+        <v>90</v>
+      </c>
+      <c r="K32">
+        <v>85</v>
+      </c>
+      <c r="L32">
+        <v>81</v>
+      </c>
+      <c r="M32">
+        <v>86</v>
+      </c>
+      <c r="N32">
         <v>72</v>
       </c>
-      <c r="H32">
-        <v>68</v>
-      </c>
-      <c r="I32">
-        <v>73</v>
-      </c>
-      <c r="J32">
-        <v>78</v>
-      </c>
-      <c r="K32">
-        <v>74</v>
-      </c>
-      <c r="L32">
-        <v>79</v>
-      </c>
-      <c r="M32">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="C33">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D33">
-        <v>83</v>
+        <v>1800</v>
       </c>
       <c r="E33">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F33">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="G33">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="H33">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="I33">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="J33">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="K33">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="L33">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="M33">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="N33">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>250</v>
+        <v>650</v>
       </c>
       <c r="C34">
-        <v>240</v>
+        <v>1800</v>
       </c>
       <c r="D34">
-        <v>60</v>
+        <v>5000</v>
       </c>
       <c r="E34">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F34">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="G34">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="H34">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="I34">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="J34">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K34">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="L34">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="M34">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="N34">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>650</v>
+        <v>520</v>
       </c>
       <c r="C35">
-        <v>900</v>
+        <v>240</v>
       </c>
       <c r="D35">
-        <v>90</v>
+        <v>600</v>
       </c>
       <c r="E35">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F35">
         <v>91</v>
       </c>
       <c r="G35">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="H35">
         <v>92</v>
       </c>
       <c r="I35">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="J35">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35">
         <v>88</v>
       </c>
       <c r="L35">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="M35">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="N35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="C36">
-        <v>120</v>
+        <v>1140</v>
       </c>
       <c r="D36">
+        <v>2700</v>
+      </c>
+      <c r="E36">
+        <v>85</v>
+      </c>
+      <c r="F36">
+        <v>90</v>
+      </c>
+      <c r="G36">
         <v>86</v>
       </c>
-      <c r="E36">
+      <c r="H36">
         <v>91</v>
       </c>
-      <c r="F36">
+      <c r="I36">
         <v>87</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>92</v>
       </c>
-      <c r="H36">
-        <v>88</v>
-      </c>
-      <c r="I36">
-        <v>93</v>
-      </c>
-      <c r="J36">
-        <v>88</v>
-      </c>
       <c r="K36">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="L36">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M36">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="N36">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>550</v>
+        <v>320</v>
       </c>
       <c r="C37">
-        <v>570</v>
+        <v>180</v>
       </c>
       <c r="D37">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="E37">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F37">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G37">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H37">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I37">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J37">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="K37">
         <v>87</v>
       </c>
       <c r="L37">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="M37">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="N37">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>310</v>
+        <v>450</v>
       </c>
       <c r="C38">
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="D38">
-        <v>70</v>
+        <v>2500</v>
       </c>
       <c r="E38">
+        <v>80</v>
+      </c>
+      <c r="F38">
+        <v>85</v>
+      </c>
+      <c r="G38">
+        <v>81</v>
+      </c>
+      <c r="H38">
+        <v>86</v>
+      </c>
+      <c r="I38">
+        <v>82</v>
+      </c>
+      <c r="J38">
+        <v>87</v>
+      </c>
+      <c r="K38">
+        <v>86</v>
+      </c>
+      <c r="L38">
+        <v>82</v>
+      </c>
+      <c r="M38">
+        <v>87</v>
+      </c>
+      <c r="N38">
         <v>75</v>
       </c>
-      <c r="F38">
-        <v>71</v>
-      </c>
-      <c r="G38">
-        <v>76</v>
-      </c>
-      <c r="H38">
-        <v>67</v>
-      </c>
-      <c r="I38">
-        <v>72</v>
-      </c>
-      <c r="J38">
-        <v>77</v>
-      </c>
-      <c r="K38">
-        <v>73</v>
-      </c>
-      <c r="L38">
-        <v>78</v>
-      </c>
-      <c r="M38">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>320</v>
+        <v>420</v>
       </c>
       <c r="C39">
+        <v>240</v>
+      </c>
+      <c r="D39">
+        <v>700</v>
+      </c>
+      <c r="E39">
+        <v>78</v>
+      </c>
+      <c r="F39">
+        <v>83</v>
+      </c>
+      <c r="G39">
+        <v>79</v>
+      </c>
+      <c r="H39">
+        <v>84</v>
+      </c>
+      <c r="I39">
+        <v>80</v>
+      </c>
+      <c r="J39">
+        <v>85</v>
+      </c>
+      <c r="K39">
         <v>90</v>
       </c>
-      <c r="D39">
-        <v>75</v>
-      </c>
-      <c r="E39">
-        <v>80</v>
-      </c>
-      <c r="F39">
-        <v>76</v>
-      </c>
-      <c r="G39">
-        <v>81</v>
-      </c>
-      <c r="H39">
+      <c r="L39">
+        <v>86</v>
+      </c>
+      <c r="M39">
+        <v>91</v>
+      </c>
+      <c r="N39">
         <v>77</v>
       </c>
-      <c r="I39">
-        <v>82</v>
-      </c>
-      <c r="J39">
-        <v>87</v>
-      </c>
-      <c r="K39">
-        <v>83</v>
-      </c>
-      <c r="L39">
-        <v>88</v>
-      </c>
-      <c r="M39">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="C40">
-        <v>510</v>
+        <v>1560</v>
       </c>
       <c r="D40">
-        <v>80</v>
+        <v>5900</v>
       </c>
       <c r="E40">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="F40">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="G40">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="H40">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I40">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="J40">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L40">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="M40">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="N40">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="C41">
-        <v>360</v>
+        <v>1320</v>
       </c>
       <c r="D41">
-        <v>88</v>
+        <v>3300</v>
       </c>
       <c r="E41">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F41">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G41">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H41">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I41">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="J41">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K41">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="L41">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="M41">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="N41">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>420</v>
+        <v>290</v>
       </c>
       <c r="C42">
-        <v>120</v>
+        <v>960</v>
       </c>
       <c r="D42">
-        <v>78</v>
+        <v>2500</v>
       </c>
       <c r="E42">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="F42">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="G42">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="H42">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="I42">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="J42">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="L42">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="M42">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="N42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="C43">
-        <v>780</v>
+        <v>360</v>
       </c>
       <c r="D43">
-        <v>65</v>
+        <v>900</v>
       </c>
       <c r="E43">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F43">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G43">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H43">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="I43">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J43">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="K43">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="L43">
+        <v>85</v>
+      </c>
+      <c r="M43">
+        <v>90</v>
+      </c>
+      <c r="N43">
         <v>78</v>
       </c>
-      <c r="M43">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>480</v>
+        <v>350</v>
       </c>
       <c r="C44">
-        <v>660</v>
+        <v>360</v>
       </c>
       <c r="D44">
+        <v>700</v>
+      </c>
+      <c r="E44">
+        <v>72</v>
+      </c>
+      <c r="F44">
+        <v>77</v>
+      </c>
+      <c r="G44">
+        <v>73</v>
+      </c>
+      <c r="H44">
+        <v>78</v>
+      </c>
+      <c r="I44">
+        <v>74</v>
+      </c>
+      <c r="J44">
+        <v>79</v>
+      </c>
+      <c r="K44">
+        <v>84</v>
+      </c>
+      <c r="L44">
         <v>80</v>
       </c>
-      <c r="E44">
+      <c r="M44">
         <v>85</v>
       </c>
-      <c r="F44">
-        <v>81</v>
-      </c>
-      <c r="G44">
-        <v>86</v>
-      </c>
-      <c r="H44">
-        <v>82</v>
-      </c>
-      <c r="I44">
-        <v>87</v>
-      </c>
-      <c r="J44">
-        <v>82</v>
-      </c>
-      <c r="K44">
-        <v>78</v>
-      </c>
-      <c r="L44">
-        <v>83</v>
-      </c>
-      <c r="M44">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N44">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="C45">
-        <v>480</v>
+        <v>1560</v>
       </c>
       <c r="D45">
-        <v>55</v>
+        <v>5200</v>
       </c>
       <c r="E45">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F45">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G45">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H45">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="I45">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="J45">
+        <v>70</v>
+      </c>
+      <c r="K45">
+        <v>75</v>
+      </c>
+      <c r="L45">
+        <v>71</v>
+      </c>
+      <c r="M45">
+        <v>76</v>
+      </c>
+      <c r="N45">
         <v>62</v>
       </c>
-      <c r="K45">
-        <v>58</v>
-      </c>
-      <c r="L45">
-        <v>63</v>
-      </c>
-      <c r="M45">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>420</v>
+        <v>580</v>
       </c>
       <c r="C46">
-        <v>180</v>
+        <v>2100</v>
       </c>
       <c r="D46">
-        <v>77</v>
+        <v>10500</v>
       </c>
       <c r="E46">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="F46">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="G46">
+        <v>90</v>
+      </c>
+      <c r="H46">
+        <v>95</v>
+      </c>
+      <c r="I46">
+        <v>91</v>
+      </c>
+      <c r="J46">
+        <v>96</v>
+      </c>
+      <c r="K46">
+        <v>91</v>
+      </c>
+      <c r="L46">
+        <v>87</v>
+      </c>
+      <c r="M46">
+        <v>92</v>
+      </c>
+      <c r="N46">
         <v>83</v>
       </c>
-      <c r="H46">
-        <v>79</v>
-      </c>
-      <c r="I46">
-        <v>84</v>
-      </c>
-      <c r="J46">
-        <v>89</v>
-      </c>
-      <c r="K46">
-        <v>85</v>
-      </c>
-      <c r="L46">
-        <v>90</v>
-      </c>
-      <c r="M46">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>300</v>
+        <v>570</v>
       </c>
       <c r="C47">
-        <v>60</v>
+        <v>2400</v>
       </c>
       <c r="D47">
-        <v>68</v>
+        <v>11000</v>
       </c>
       <c r="E47">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F47">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="G47">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H47">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="I47">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J47">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="L47">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M47">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="N47">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="C48">
-        <v>180</v>
+        <v>1560</v>
       </c>
       <c r="D48">
-        <v>72</v>
+        <v>4900</v>
       </c>
       <c r="E48">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="F48">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G48">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H48">
+        <v>68</v>
+      </c>
+      <c r="I48">
+        <v>64</v>
+      </c>
+      <c r="J48">
+        <v>69</v>
+      </c>
+      <c r="K48">
         <v>74</v>
       </c>
-      <c r="I48">
-        <v>79</v>
-      </c>
-      <c r="J48">
-        <v>84</v>
-      </c>
-      <c r="K48">
-        <v>80</v>
-      </c>
       <c r="L48">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="M48">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="N48">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>380</v>
+        <v>520</v>
       </c>
       <c r="C49">
-        <v>780</v>
+        <v>1200</v>
       </c>
       <c r="D49">
-        <v>63</v>
+        <v>2200</v>
       </c>
       <c r="E49">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F49">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="G49">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H49">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="I49">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="J49">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="K49">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="L49">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="M49">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="N49">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="C50">
-        <v>180</v>
+        <v>480</v>
       </c>
       <c r="D50">
-        <v>74</v>
+        <v>3100</v>
       </c>
       <c r="E50">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F50">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G50">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H50">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I50">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J50">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K50">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L50">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M50">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="N50">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C51">
         <v>210</v>
       </c>
       <c r="D51">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="E51">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F51">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G51">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H51">
+        <v>88</v>
+      </c>
+      <c r="I51">
+        <v>84</v>
+      </c>
+      <c r="J51">
+        <v>89</v>
+      </c>
+      <c r="K51">
+        <v>94</v>
+      </c>
+      <c r="L51">
+        <v>90</v>
+      </c>
+      <c r="M51">
+        <v>95</v>
+      </c>
+      <c r="N51">
         <v>83</v>
       </c>
-      <c r="I51">
-        <v>88</v>
-      </c>
-      <c r="J51">
-        <v>83</v>
-      </c>
-      <c r="K51">
-        <v>79</v>
-      </c>
-      <c r="L51">
-        <v>84</v>
-      </c>
-      <c r="M51">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>580</v>
+        <v>500</v>
       </c>
       <c r="C52">
-        <v>1050</v>
+        <v>270</v>
       </c>
       <c r="D52">
+        <v>600</v>
+      </c>
+      <c r="E52">
+        <v>83</v>
+      </c>
+      <c r="F52">
+        <v>88</v>
+      </c>
+      <c r="G52">
+        <v>84</v>
+      </c>
+      <c r="H52">
         <v>89</v>
       </c>
-      <c r="E52">
-        <v>94</v>
-      </c>
-      <c r="F52">
+      <c r="I52">
+        <v>85</v>
+      </c>
+      <c r="J52">
         <v>90</v>
       </c>
-      <c r="G52">
+      <c r="K52">
         <v>95</v>
       </c>
-      <c r="H52">
+      <c r="L52">
         <v>91</v>
       </c>
-      <c r="I52">
+      <c r="M52">
         <v>96</v>
       </c>
-      <c r="J52">
-        <v>91</v>
-      </c>
-      <c r="K52">
-        <v>87</v>
-      </c>
-      <c r="L52">
-        <v>92</v>
-      </c>
-      <c r="M52">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="C53">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="D53">
+        <v>800</v>
+      </c>
+      <c r="E53">
+        <v>87</v>
+      </c>
+      <c r="F53">
+        <v>92</v>
+      </c>
+      <c r="G53">
         <v>88</v>
       </c>
-      <c r="E53">
+      <c r="H53">
         <v>93</v>
       </c>
-      <c r="F53">
+      <c r="I53">
         <v>89</v>
       </c>
-      <c r="G53">
+      <c r="J53">
         <v>94</v>
       </c>
-      <c r="H53">
+      <c r="K53">
+        <v>89</v>
+      </c>
+      <c r="L53">
+        <v>85</v>
+      </c>
+      <c r="M53">
         <v>90</v>
       </c>
-      <c r="I53">
-        <v>95</v>
-      </c>
-      <c r="J53">
-        <v>90</v>
-      </c>
-      <c r="K53">
-        <v>86</v>
-      </c>
-      <c r="L53">
-        <v>91</v>
-      </c>
-      <c r="M53">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>270</v>
+        <v>390</v>
       </c>
       <c r="C54">
-        <v>420</v>
+        <v>360</v>
       </c>
       <c r="D54">
-        <v>58</v>
+        <v>800</v>
       </c>
       <c r="E54">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="F54">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="G54">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="H54">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="I54">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="J54">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K54">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="L54">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M54">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="N54">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C55">
-        <v>780</v>
+        <v>1080</v>
       </c>
       <c r="D55">
-        <v>62</v>
+        <v>5000</v>
       </c>
       <c r="E55">
+        <v>59</v>
+      </c>
+      <c r="F55">
+        <v>64</v>
+      </c>
+      <c r="G55">
+        <v>60</v>
+      </c>
+      <c r="H55">
+        <v>65</v>
+      </c>
+      <c r="I55">
+        <v>61</v>
+      </c>
+      <c r="J55">
+        <v>66</v>
+      </c>
+      <c r="K55">
+        <v>71</v>
+      </c>
+      <c r="L55">
         <v>67</v>
       </c>
-      <c r="F55">
-        <v>63</v>
-      </c>
-      <c r="G55">
-        <v>68</v>
-      </c>
-      <c r="H55">
-        <v>64</v>
-      </c>
-      <c r="I55">
-        <v>69</v>
-      </c>
-      <c r="J55">
-        <v>74</v>
-      </c>
-      <c r="K55">
-        <v>70</v>
-      </c>
-      <c r="L55">
-        <v>75</v>
-      </c>
       <c r="M55">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="N55">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="C56">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="D56">
-        <v>84</v>
+        <v>200</v>
       </c>
       <c r="E56">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="F56">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G56">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="H56">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I56">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="J56">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="K56">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="L56">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="M56">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="N56">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="C57">
         <v>240</v>
       </c>
       <c r="D57">
-        <v>76</v>
+        <v>800</v>
       </c>
       <c r="E57">
         <v>81</v>
       </c>
       <c r="F57">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G57">
         <v>82</v>
       </c>
       <c r="H57">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I57">
         <v>83</v>
@@ -3268,39 +3508,42 @@
         <v>88</v>
       </c>
       <c r="K57">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="L57">
         <v>89</v>
       </c>
       <c r="M57">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="N57">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>460</v>
+        <v>550</v>
       </c>
       <c r="C58">
-        <v>105</v>
+        <v>1320</v>
       </c>
       <c r="D58">
-        <v>82</v>
+        <v>4000</v>
       </c>
       <c r="E58">
         <v>87</v>
       </c>
       <c r="F58">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="G58">
         <v>88</v>
       </c>
       <c r="H58">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I58">
         <v>89</v>
@@ -3309,2186 +3552,1952 @@
         <v>94</v>
       </c>
       <c r="K58">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="L58">
         <v>95</v>
       </c>
       <c r="M58">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="N58">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>400</v>
+        <v>370</v>
       </c>
       <c r="C59">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="D59">
+        <v>450</v>
+      </c>
+      <c r="E59">
+        <v>73</v>
+      </c>
+      <c r="F59">
         <v>78</v>
       </c>
-      <c r="E59">
-        <v>83</v>
-      </c>
-      <c r="F59">
+      <c r="G59">
+        <v>74</v>
+      </c>
+      <c r="H59">
         <v>79</v>
       </c>
-      <c r="G59">
-        <v>84</v>
-      </c>
-      <c r="H59">
+      <c r="I59">
+        <v>75</v>
+      </c>
+      <c r="J59">
         <v>80</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>85</v>
       </c>
-      <c r="J59">
-        <v>90</v>
-      </c>
-      <c r="K59">
+      <c r="L59">
+        <v>81</v>
+      </c>
+      <c r="M59">
         <v>86</v>
       </c>
-      <c r="L59">
-        <v>91</v>
-      </c>
-      <c r="M59">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N59">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60">
+        <v>410</v>
+      </c>
+      <c r="C60">
+        <v>270</v>
+      </c>
+      <c r="D60">
         <v>500</v>
       </c>
-      <c r="C60">
-        <v>135</v>
-      </c>
-      <c r="D60">
+      <c r="E60">
+        <v>77</v>
+      </c>
+      <c r="F60">
+        <v>82</v>
+      </c>
+      <c r="G60">
+        <v>78</v>
+      </c>
+      <c r="H60">
         <v>83</v>
       </c>
-      <c r="E60">
-        <v>88</v>
-      </c>
-      <c r="F60">
+      <c r="I60">
+        <v>79</v>
+      </c>
+      <c r="J60">
         <v>84</v>
       </c>
-      <c r="G60">
+      <c r="K60">
         <v>89</v>
       </c>
-      <c r="H60">
+      <c r="L60">
         <v>85</v>
       </c>
-      <c r="I60">
+      <c r="M60">
         <v>90</v>
       </c>
-      <c r="J60">
-        <v>95</v>
-      </c>
-      <c r="K60">
-        <v>91</v>
-      </c>
-      <c r="L60">
-        <v>96</v>
-      </c>
-      <c r="M60">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="C61">
-        <v>870</v>
+        <v>0</v>
       </c>
       <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>67</v>
+      </c>
+      <c r="F61">
+        <v>72</v>
+      </c>
+      <c r="G61">
         <v>68</v>
       </c>
-      <c r="E61">
+      <c r="H61">
         <v>73</v>
       </c>
-      <c r="F61">
+      <c r="I61">
         <v>69</v>
       </c>
-      <c r="G61">
+      <c r="J61">
         <v>74</v>
       </c>
-      <c r="H61">
-        <v>70</v>
-      </c>
-      <c r="I61">
+      <c r="K61">
+        <v>79</v>
+      </c>
+      <c r="L61">
         <v>75</v>
       </c>
-      <c r="J61">
+      <c r="M61">
         <v>80</v>
       </c>
-      <c r="K61">
-        <v>76</v>
-      </c>
-      <c r="L61">
-        <v>81</v>
-      </c>
-      <c r="M61">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N61">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>550</v>
+        <v>380</v>
       </c>
       <c r="C62">
-        <v>240</v>
+        <v>1920</v>
       </c>
       <c r="D62">
-        <v>87</v>
+        <v>7500</v>
       </c>
       <c r="E62">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="F62">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="G62">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="H62">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="I62">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="J62">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L62">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="M62">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="N62">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C63">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="D63">
+        <v>450</v>
+      </c>
+      <c r="E63">
+        <v>71</v>
+      </c>
+      <c r="F63">
+        <v>76</v>
+      </c>
+      <c r="G63">
+        <v>72</v>
+      </c>
+      <c r="H63">
+        <v>77</v>
+      </c>
+      <c r="I63">
         <v>73</v>
       </c>
-      <c r="E63">
+      <c r="J63">
         <v>78</v>
       </c>
-      <c r="F63">
-        <v>74</v>
-      </c>
-      <c r="G63">
+      <c r="K63">
+        <v>83</v>
+      </c>
+      <c r="L63">
         <v>79</v>
       </c>
-      <c r="H63">
-        <v>75</v>
-      </c>
-      <c r="I63">
-        <v>80</v>
-      </c>
-      <c r="J63">
-        <v>85</v>
-      </c>
-      <c r="K63">
-        <v>81</v>
-      </c>
-      <c r="L63">
-        <v>86</v>
-      </c>
       <c r="M63">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="N63">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>510</v>
+        <v>400</v>
       </c>
       <c r="C64">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="D64">
-        <v>85</v>
+        <v>600</v>
       </c>
       <c r="E64">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F64">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G64">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="H64">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I64">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="J64">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K64">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="L64">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M64">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="N64">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="C65">
-        <v>540</v>
+        <v>330</v>
       </c>
       <c r="D65">
-        <v>59</v>
+        <v>1200</v>
       </c>
       <c r="E65">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F65">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="G65">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H65">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="I65">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="J65">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="K65">
+        <v>81</v>
+      </c>
+      <c r="L65">
+        <v>77</v>
+      </c>
+      <c r="M65">
+        <v>82</v>
+      </c>
+      <c r="N65">
         <v>67</v>
       </c>
-      <c r="L65">
-        <v>72</v>
-      </c>
-      <c r="M65">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>380</v>
+        <v>480</v>
       </c>
       <c r="C66">
-        <v>840</v>
+        <v>300</v>
       </c>
       <c r="D66">
-        <v>70</v>
+        <v>650</v>
       </c>
       <c r="E66">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F66">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="G66">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H66">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I66">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J66">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="K66">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="L66">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M66">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="N66">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>320</v>
+        <v>390</v>
       </c>
       <c r="C67">
-        <v>50</v>
+        <v>1620</v>
       </c>
       <c r="D67">
-        <v>68</v>
+        <v>6300</v>
       </c>
       <c r="E67">
+        <v>72</v>
+      </c>
+      <c r="F67">
+        <v>77</v>
+      </c>
+      <c r="G67">
         <v>73</v>
       </c>
-      <c r="F67">
-        <v>69</v>
-      </c>
-      <c r="G67">
+      <c r="H67">
+        <v>78</v>
+      </c>
+      <c r="I67">
         <v>74</v>
       </c>
-      <c r="H67">
+      <c r="J67">
+        <v>79</v>
+      </c>
+      <c r="K67">
+        <v>84</v>
+      </c>
+      <c r="L67">
+        <v>80</v>
+      </c>
+      <c r="M67">
+        <v>85</v>
+      </c>
+      <c r="N67">
         <v>70</v>
       </c>
-      <c r="I67">
-        <v>75</v>
-      </c>
-      <c r="J67">
-        <v>80</v>
-      </c>
-      <c r="K67">
-        <v>76</v>
-      </c>
-      <c r="L67">
-        <v>81</v>
-      </c>
-      <c r="M67">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>360</v>
+        <v>530</v>
       </c>
       <c r="C68">
-        <v>780</v>
+        <v>1200</v>
       </c>
       <c r="D68">
-        <v>72</v>
+        <v>5200</v>
       </c>
       <c r="E68">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F68">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="G68">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H68">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I68">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J68">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="K68">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="L68">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M68">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="N68">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="C69">
-        <v>660</v>
+        <v>300</v>
       </c>
       <c r="D69">
-        <v>66</v>
+        <v>700</v>
       </c>
       <c r="E69">
+        <v>70</v>
+      </c>
+      <c r="F69">
+        <v>75</v>
+      </c>
+      <c r="G69">
         <v>71</v>
       </c>
-      <c r="F69">
-        <v>67</v>
-      </c>
-      <c r="G69">
+      <c r="H69">
+        <v>76</v>
+      </c>
+      <c r="I69">
         <v>72</v>
       </c>
-      <c r="H69">
+      <c r="J69">
+        <v>77</v>
+      </c>
+      <c r="K69">
+        <v>82</v>
+      </c>
+      <c r="L69">
+        <v>78</v>
+      </c>
+      <c r="M69">
+        <v>83</v>
+      </c>
+      <c r="N69">
         <v>68</v>
       </c>
-      <c r="I69">
-        <v>73</v>
-      </c>
-      <c r="J69">
-        <v>78</v>
-      </c>
-      <c r="K69">
-        <v>74</v>
-      </c>
-      <c r="L69">
-        <v>79</v>
-      </c>
-      <c r="M69">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>440</v>
+        <v>290</v>
       </c>
       <c r="C70">
-        <v>120</v>
+        <v>1080</v>
       </c>
       <c r="D70">
-        <v>81</v>
+        <v>4000</v>
       </c>
       <c r="E70">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F70">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G70">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="H70">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="I70">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="J70">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="K70">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="L70">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="M70">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="N70">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="C71">
-        <v>660</v>
+        <v>1800</v>
       </c>
       <c r="D71">
+        <v>8000</v>
+      </c>
+      <c r="E71">
+        <v>75</v>
+      </c>
+      <c r="F71">
+        <v>80</v>
+      </c>
+      <c r="G71">
+        <v>76</v>
+      </c>
+      <c r="H71">
+        <v>81</v>
+      </c>
+      <c r="I71">
+        <v>77</v>
+      </c>
+      <c r="J71">
+        <v>82</v>
+      </c>
+      <c r="K71">
         <v>87</v>
       </c>
-      <c r="E71">
-        <v>92</v>
-      </c>
-      <c r="F71">
-        <v>88</v>
-      </c>
-      <c r="G71">
-        <v>93</v>
-      </c>
-      <c r="H71">
-        <v>89</v>
-      </c>
-      <c r="I71">
-        <v>94</v>
-      </c>
-      <c r="J71">
-        <v>99</v>
-      </c>
-      <c r="K71">
-        <v>95</v>
-      </c>
       <c r="L71">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="M71">
         <v>88</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N71">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="C72">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="D72">
-        <v>64</v>
+        <v>350</v>
       </c>
       <c r="E72">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="F72">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G72">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H72">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I72">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J72">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="K72">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="L72">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="M72">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="N72">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="C73">
-        <v>165</v>
+        <v>480</v>
       </c>
       <c r="D73">
-        <v>73</v>
+        <v>1900</v>
       </c>
       <c r="E73">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F73">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G73">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="H73">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I73">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="J73">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="K73">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L73">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="M73">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="N73">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C74">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D74">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="E74">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F74">
+        <v>83</v>
+      </c>
+      <c r="G74">
+        <v>79</v>
+      </c>
+      <c r="H74">
+        <v>84</v>
+      </c>
+      <c r="I74">
+        <v>80</v>
+      </c>
+      <c r="J74">
+        <v>85</v>
+      </c>
+      <c r="K74">
+        <v>90</v>
+      </c>
+      <c r="L74">
+        <v>86</v>
+      </c>
+      <c r="M74">
+        <v>91</v>
+      </c>
+      <c r="N74">
         <v>78</v>
       </c>
-      <c r="G74">
-        <v>83</v>
-      </c>
-      <c r="H74">
-        <v>79</v>
-      </c>
-      <c r="I74">
-        <v>84</v>
-      </c>
-      <c r="J74">
-        <v>89</v>
-      </c>
-      <c r="K74">
-        <v>85</v>
-      </c>
-      <c r="L74">
-        <v>90</v>
-      </c>
-      <c r="M74">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>290</v>
+        <v>380</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D75">
-        <v>67</v>
+        <v>500</v>
       </c>
       <c r="E75">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F75">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G75">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H75">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I75">
+        <v>76</v>
+      </c>
+      <c r="J75">
+        <v>81</v>
+      </c>
+      <c r="K75">
+        <v>86</v>
+      </c>
+      <c r="L75">
+        <v>82</v>
+      </c>
+      <c r="M75">
+        <v>87</v>
+      </c>
+      <c r="N75">
         <v>74</v>
       </c>
-      <c r="J75">
-        <v>79</v>
-      </c>
-      <c r="K75">
-        <v>75</v>
-      </c>
-      <c r="L75">
-        <v>80</v>
-      </c>
-      <c r="M75">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>380</v>
+        <v>520</v>
       </c>
       <c r="C76">
-        <v>960</v>
+        <v>1200</v>
       </c>
       <c r="D76">
-        <v>65</v>
+        <v>3700</v>
       </c>
       <c r="E76">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="F76">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G76">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="H76">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="I76">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="J76">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K76">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="L76">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="M76">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="N76">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="C77">
-        <v>150</v>
+        <v>330</v>
       </c>
       <c r="D77">
-        <v>71</v>
+        <v>800</v>
       </c>
       <c r="E77">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F77">
+        <v>78</v>
+      </c>
+      <c r="G77">
+        <v>74</v>
+      </c>
+      <c r="H77">
+        <v>79</v>
+      </c>
+      <c r="I77">
+        <v>75</v>
+      </c>
+      <c r="J77">
+        <v>80</v>
+      </c>
+      <c r="K77">
+        <v>85</v>
+      </c>
+      <c r="L77">
+        <v>81</v>
+      </c>
+      <c r="M77">
+        <v>86</v>
+      </c>
+      <c r="N77">
         <v>72</v>
       </c>
-      <c r="G77">
-        <v>77</v>
-      </c>
-      <c r="H77">
-        <v>73</v>
-      </c>
-      <c r="I77">
-        <v>78</v>
-      </c>
-      <c r="J77">
-        <v>83</v>
-      </c>
-      <c r="K77">
-        <v>79</v>
-      </c>
-      <c r="L77">
-        <v>84</v>
-      </c>
-      <c r="M77">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="C78">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="D78">
-        <v>76</v>
+        <v>600</v>
       </c>
       <c r="E78">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F78">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G78">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H78">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I78">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="J78">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K78">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="L78">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M78">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="N78">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="C79">
-        <v>165</v>
+        <v>270</v>
       </c>
       <c r="D79">
-        <v>69</v>
+        <v>600</v>
       </c>
       <c r="E79">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F79">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="G79">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H79">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I79">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J79">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K79">
+        <v>90</v>
+      </c>
+      <c r="L79">
+        <v>86</v>
+      </c>
+      <c r="M79">
+        <v>91</v>
+      </c>
+      <c r="N79">
         <v>77</v>
       </c>
-      <c r="L79">
-        <v>82</v>
-      </c>
-      <c r="M79">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>480</v>
+        <v>300</v>
       </c>
       <c r="C80">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="D80">
-        <v>82</v>
+        <v>700</v>
       </c>
       <c r="E80">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="F80">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="G80">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="H80">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I80">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="J80">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="K80">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L80">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="M80">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="N80">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="C81">
-        <v>810</v>
+        <v>180</v>
       </c>
       <c r="D81">
+        <v>750</v>
+      </c>
+      <c r="E81">
+        <v>67</v>
+      </c>
+      <c r="F81">
         <v>72</v>
       </c>
-      <c r="E81">
-        <v>77</v>
-      </c>
-      <c r="F81">
+      <c r="G81">
+        <v>68</v>
+      </c>
+      <c r="H81">
         <v>73</v>
       </c>
-      <c r="G81">
-        <v>78</v>
-      </c>
-      <c r="H81">
+      <c r="I81">
+        <v>69</v>
+      </c>
+      <c r="J81">
         <v>74</v>
       </c>
-      <c r="I81">
+      <c r="K81">
         <v>79</v>
       </c>
-      <c r="J81">
-        <v>84</v>
-      </c>
-      <c r="K81">
+      <c r="L81">
+        <v>75</v>
+      </c>
+      <c r="M81">
         <v>80</v>
       </c>
-      <c r="L81">
-        <v>85</v>
-      </c>
-      <c r="M81">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="C82">
-        <v>600</v>
+        <v>1440</v>
       </c>
       <c r="D82">
-        <v>83</v>
+        <v>4500</v>
       </c>
       <c r="E82">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="F82">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G82">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="H82">
+        <v>79</v>
+      </c>
+      <c r="I82">
+        <v>75</v>
+      </c>
+      <c r="J82">
+        <v>80</v>
+      </c>
+      <c r="K82">
         <v>85</v>
       </c>
-      <c r="I82">
-        <v>90</v>
-      </c>
-      <c r="J82">
-        <v>95</v>
-      </c>
-      <c r="K82">
-        <v>91</v>
-      </c>
       <c r="L82">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="M82">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="N82">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="C83">
-        <v>150</v>
+        <v>240</v>
       </c>
       <c r="D83">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="E83">
+        <v>76</v>
+      </c>
+      <c r="F83">
+        <v>81</v>
+      </c>
+      <c r="G83">
+        <v>77</v>
+      </c>
+      <c r="H83">
+        <v>82</v>
+      </c>
+      <c r="I83">
+        <v>78</v>
+      </c>
+      <c r="J83">
+        <v>83</v>
+      </c>
+      <c r="K83">
+        <v>88</v>
+      </c>
+      <c r="L83">
+        <v>84</v>
+      </c>
+      <c r="M83">
+        <v>89</v>
+      </c>
+      <c r="N83">
         <v>75</v>
       </c>
-      <c r="F83">
-        <v>71</v>
-      </c>
-      <c r="G83">
-        <v>76</v>
-      </c>
-      <c r="H83">
-        <v>72</v>
-      </c>
-      <c r="I83">
-        <v>77</v>
-      </c>
-      <c r="J83">
-        <v>82</v>
-      </c>
-      <c r="K83">
-        <v>78</v>
-      </c>
-      <c r="L83">
-        <v>83</v>
-      </c>
-      <c r="M83">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="C84">
-        <v>540</v>
+        <v>1320</v>
       </c>
       <c r="D84">
-        <v>58</v>
+        <v>4700</v>
       </c>
       <c r="E84">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F84">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G84">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H84">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="I84">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J84">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K84">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="L84">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M84">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="N84">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="C85">
-        <v>900</v>
+        <v>1440</v>
       </c>
       <c r="D85">
+        <v>5000</v>
+      </c>
+      <c r="E85">
+        <v>70</v>
+      </c>
+      <c r="F85">
         <v>75</v>
       </c>
-      <c r="E85">
-        <v>80</v>
-      </c>
-      <c r="F85">
+      <c r="G85">
+        <v>71</v>
+      </c>
+      <c r="H85">
         <v>76</v>
       </c>
-      <c r="G85">
-        <v>81</v>
-      </c>
-      <c r="H85">
+      <c r="I85">
+        <v>72</v>
+      </c>
+      <c r="J85">
         <v>77</v>
       </c>
-      <c r="I85">
+      <c r="K85">
         <v>82</v>
       </c>
-      <c r="J85">
-        <v>87</v>
-      </c>
-      <c r="K85">
+      <c r="L85">
+        <v>78</v>
+      </c>
+      <c r="M85">
         <v>83</v>
       </c>
-      <c r="L85">
-        <v>88</v>
-      </c>
-      <c r="M85">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="C86">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="D86">
+        <v>300</v>
+      </c>
+      <c r="E86">
+        <v>66</v>
+      </c>
+      <c r="F86">
+        <v>71</v>
+      </c>
+      <c r="G86">
+        <v>67</v>
+      </c>
+      <c r="H86">
+        <v>72</v>
+      </c>
+      <c r="I86">
+        <v>68</v>
+      </c>
+      <c r="J86">
+        <v>73</v>
+      </c>
+      <c r="K86">
+        <v>78</v>
+      </c>
+      <c r="L86">
+        <v>74</v>
+      </c>
+      <c r="M86">
         <v>79</v>
       </c>
-      <c r="E86">
-        <v>84</v>
-      </c>
-      <c r="F86">
-        <v>80</v>
-      </c>
-      <c r="G86">
-        <v>85</v>
-      </c>
-      <c r="H86">
-        <v>81</v>
-      </c>
-      <c r="I86">
-        <v>86</v>
-      </c>
-      <c r="J86">
-        <v>91</v>
-      </c>
-      <c r="K86">
-        <v>87</v>
-      </c>
-      <c r="L86">
-        <v>92</v>
-      </c>
-      <c r="M86">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="C87">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="D87">
-        <v>64</v>
+        <v>700</v>
       </c>
       <c r="E87">
+        <v>68</v>
+      </c>
+      <c r="F87">
+        <v>73</v>
+      </c>
+      <c r="G87">
         <v>69</v>
       </c>
-      <c r="F87">
-        <v>65</v>
-      </c>
-      <c r="G87">
+      <c r="H87">
+        <v>74</v>
+      </c>
+      <c r="I87">
         <v>70</v>
       </c>
-      <c r="H87">
-        <v>66</v>
-      </c>
-      <c r="I87">
-        <v>71</v>
-      </c>
       <c r="J87">
+        <v>75</v>
+      </c>
+      <c r="K87">
+        <v>80</v>
+      </c>
+      <c r="L87">
         <v>76</v>
       </c>
-      <c r="K87">
-        <v>72</v>
-      </c>
-      <c r="L87">
-        <v>77</v>
-      </c>
       <c r="M87">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="N87">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="C88">
-        <v>60</v>
+        <v>210</v>
       </c>
       <c r="D88">
-        <v>78</v>
+        <v>1000</v>
       </c>
       <c r="E88">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="F88">
         <v>79</v>
       </c>
       <c r="G88">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="H88">
         <v>80</v>
       </c>
       <c r="I88">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J88">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K88">
         <v>86</v>
       </c>
       <c r="L88">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M88">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="N88">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="C89">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="D89">
-        <v>74</v>
+        <v>700</v>
       </c>
       <c r="E89">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F89">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G89">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="H89">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I89">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="J89">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="K89">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L89">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="M89">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="N89">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="C90">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="D90">
-        <v>83</v>
+        <v>2600</v>
       </c>
       <c r="E90">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F90">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G90">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="H90">
+        <v>81</v>
+      </c>
+      <c r="I90">
+        <v>87</v>
+      </c>
+      <c r="J90">
+        <v>70</v>
+      </c>
+      <c r="K90">
+        <v>65</v>
+      </c>
+      <c r="L90">
         <v>85</v>
       </c>
-      <c r="I90">
-        <v>90</v>
-      </c>
-      <c r="J90">
-        <v>95</v>
-      </c>
-      <c r="K90">
-        <v>91</v>
-      </c>
-      <c r="L90">
-        <v>96</v>
-      </c>
       <c r="M90">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="N90">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>480</v>
+        <v>260</v>
       </c>
       <c r="C91">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D91">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="E91">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F91">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G91">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H91">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I91">
+        <v>84</v>
+      </c>
+      <c r="J91">
+        <v>84</v>
+      </c>
+      <c r="K91">
         <v>88</v>
       </c>
-      <c r="J91">
-        <v>93</v>
-      </c>
-      <c r="K91">
-        <v>89</v>
-      </c>
       <c r="L91">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="M91">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="N91">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="C92">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="D92">
-        <v>66</v>
+        <v>3200</v>
       </c>
       <c r="E92">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="F92">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="G92">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H92">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="I92">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="J92">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="K92">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="L92">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="M92">
         <v>65</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="C93">
-        <v>165</v>
+        <v>1600</v>
       </c>
       <c r="D93">
+        <v>3600</v>
+      </c>
+      <c r="E93">
+        <v>70</v>
+      </c>
+      <c r="F93">
         <v>73</v>
       </c>
-      <c r="E93">
-        <v>78</v>
-      </c>
-      <c r="F93">
+      <c r="G93">
+        <v>65</v>
+      </c>
+      <c r="H93">
         <v>74</v>
       </c>
-      <c r="G93">
-        <v>79</v>
-      </c>
-      <c r="H93">
-        <v>75</v>
-      </c>
       <c r="I93">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="J93">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="K93">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="L93">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="M93">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="N93">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="C94">
-        <v>180</v>
+        <v>1740</v>
       </c>
       <c r="D94">
-        <v>75</v>
+        <v>6200</v>
       </c>
       <c r="E94">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F94">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="G94">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="H94">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I94">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="J94">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="K94">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="L94">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="M94">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="N94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>310</v>
+        <v>500</v>
       </c>
       <c r="C95">
-        <v>60</v>
+        <v>1400</v>
       </c>
       <c r="D95">
-        <v>69</v>
+        <v>4300</v>
       </c>
       <c r="E95">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F95">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="G95">
         <v>75</v>
       </c>
       <c r="H95">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I95">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="J95">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K95">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="L95">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M95">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="N95">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>420</v>
+        <v>280</v>
       </c>
       <c r="C96">
-        <v>150</v>
+        <v>1200</v>
       </c>
       <c r="D96">
-        <v>77</v>
+        <v>1800</v>
       </c>
       <c r="E96">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F96">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G96">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="H96">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I96">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="J96">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="K96">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="L96">
+        <v>58</v>
+      </c>
+      <c r="M96">
+        <v>95</v>
+      </c>
+      <c r="N96">
         <v>90</v>
       </c>
-      <c r="M96">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="C97">
-        <v>120</v>
+        <v>720</v>
       </c>
       <c r="D97">
-        <v>85</v>
+        <v>2500</v>
       </c>
       <c r="E97">
+        <v>83</v>
+      </c>
+      <c r="F97">
+        <v>75</v>
+      </c>
+      <c r="G97">
         <v>90</v>
       </c>
-      <c r="F97">
-        <v>86</v>
-      </c>
-      <c r="G97">
-        <v>91</v>
-      </c>
       <c r="H97">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="I97">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="J97">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="K97">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="L97">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="M97">
         <v>85</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>510</v>
+        <v>300</v>
       </c>
       <c r="C98">
-        <v>135</v>
+        <v>480</v>
       </c>
       <c r="D98">
-        <v>84</v>
+        <v>1500</v>
       </c>
       <c r="E98">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F98">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G98">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H98">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I98">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="J98">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="K98">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="L98">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="M98">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="N98">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>410</v>
+        <v>120</v>
       </c>
       <c r="C99">
-        <v>135</v>
+        <v>1200</v>
       </c>
       <c r="D99">
-        <v>78</v>
+        <v>6200</v>
       </c>
       <c r="E99">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="F99">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G99">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="H99">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I99">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="J99">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="K99">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="L99">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="M99">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="N99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="C100">
-        <v>180</v>
+        <v>1600</v>
       </c>
       <c r="D100">
-        <v>65</v>
+        <v>7000</v>
       </c>
       <c r="E100">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F100">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G100">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H100">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I100">
         <v>72</v>
       </c>
       <c r="J100">
+        <v>73</v>
+      </c>
+      <c r="K100">
+        <v>70</v>
+      </c>
+      <c r="L100">
         <v>77</v>
       </c>
-      <c r="K100">
-        <v>73</v>
-      </c>
-      <c r="L100">
-        <v>78</v>
-      </c>
       <c r="M100">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="N100">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="C101">
-        <v>90</v>
+        <v>360</v>
       </c>
       <c r="D101">
-        <v>67</v>
+        <v>800</v>
       </c>
       <c r="E101">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F101">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="G101">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H101">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="I101">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J101">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="K101">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="L101">
         <v>80</v>
       </c>
       <c r="M101">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="N101">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="C102">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="D102">
-        <v>73</v>
+        <v>800</v>
       </c>
       <c r="E102">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F102">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="G102">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H102">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="I102">
+        <v>95</v>
+      </c>
+      <c r="J102">
+        <v>90</v>
+      </c>
+      <c r="K102">
+        <v>90</v>
+      </c>
+      <c r="L102">
+        <v>90</v>
+      </c>
+      <c r="M102">
         <v>80</v>
       </c>
-      <c r="J102">
-        <v>85</v>
-      </c>
-      <c r="K102">
-        <v>81</v>
-      </c>
-      <c r="L102">
-        <v>86</v>
-      </c>
-      <c r="M102">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>101</v>
-      </c>
-      <c r="B103">
-        <v>430</v>
-      </c>
-      <c r="C103">
-        <v>120</v>
-      </c>
-      <c r="D103">
-        <v>76</v>
-      </c>
-      <c r="E103">
-        <v>81</v>
-      </c>
-      <c r="F103">
-        <v>77</v>
-      </c>
-      <c r="G103">
-        <v>82</v>
-      </c>
-      <c r="H103">
-        <v>78</v>
-      </c>
-      <c r="I103">
-        <v>83</v>
-      </c>
-      <c r="J103">
-        <v>88</v>
-      </c>
-      <c r="K103">
-        <v>84</v>
-      </c>
-      <c r="L103">
-        <v>89</v>
-      </c>
-      <c r="M103">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>102</v>
-      </c>
-      <c r="B104">
-        <v>350</v>
-      </c>
-      <c r="C104">
-        <v>660</v>
-      </c>
-      <c r="D104">
-        <v>68</v>
-      </c>
-      <c r="E104">
-        <v>73</v>
-      </c>
-      <c r="F104">
-        <v>69</v>
-      </c>
-      <c r="G104">
-        <v>74</v>
-      </c>
-      <c r="H104">
-        <v>70</v>
-      </c>
-      <c r="I104">
-        <v>75</v>
-      </c>
-      <c r="J104">
-        <v>80</v>
-      </c>
-      <c r="K104">
-        <v>76</v>
-      </c>
-      <c r="L104">
-        <v>81</v>
-      </c>
-      <c r="M104">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>103</v>
-      </c>
-      <c r="B105">
-        <v>380</v>
-      </c>
-      <c r="C105">
-        <v>720</v>
-      </c>
-      <c r="D105">
-        <v>70</v>
-      </c>
-      <c r="E105">
-        <v>75</v>
-      </c>
-      <c r="F105">
-        <v>71</v>
-      </c>
-      <c r="G105">
-        <v>76</v>
-      </c>
-      <c r="H105">
-        <v>72</v>
-      </c>
-      <c r="I105">
-        <v>77</v>
-      </c>
-      <c r="J105">
-        <v>82</v>
-      </c>
-      <c r="K105">
-        <v>78</v>
-      </c>
-      <c r="L105">
-        <v>83</v>
-      </c>
-      <c r="M105">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>104</v>
-      </c>
-      <c r="B106">
-        <v>370</v>
-      </c>
-      <c r="C106">
-        <v>150</v>
-      </c>
-      <c r="D106">
-        <v>72</v>
-      </c>
-      <c r="E106">
-        <v>77</v>
-      </c>
-      <c r="F106">
-        <v>73</v>
-      </c>
-      <c r="G106">
-        <v>78</v>
-      </c>
-      <c r="H106">
-        <v>74</v>
-      </c>
-      <c r="I106">
-        <v>79</v>
-      </c>
-      <c r="J106">
-        <v>84</v>
-      </c>
-      <c r="K106">
-        <v>80</v>
-      </c>
-      <c r="L106">
-        <v>85</v>
-      </c>
-      <c r="M106">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>105</v>
-      </c>
-      <c r="B107">
-        <v>330</v>
-      </c>
-      <c r="C107">
-        <v>75</v>
-      </c>
-      <c r="D107">
-        <v>66</v>
-      </c>
-      <c r="E107">
-        <v>71</v>
-      </c>
-      <c r="F107">
-        <v>67</v>
-      </c>
-      <c r="G107">
-        <v>72</v>
-      </c>
-      <c r="H107">
-        <v>68</v>
-      </c>
-      <c r="I107">
-        <v>73</v>
-      </c>
-      <c r="J107">
-        <v>78</v>
-      </c>
-      <c r="K107">
-        <v>74</v>
-      </c>
-      <c r="L107">
-        <v>79</v>
-      </c>
-      <c r="M107">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>340</v>
-      </c>
-      <c r="C108">
-        <v>90</v>
-      </c>
-      <c r="D108">
-        <v>68</v>
-      </c>
-      <c r="E108">
-        <v>73</v>
-      </c>
-      <c r="F108">
-        <v>69</v>
-      </c>
-      <c r="G108">
-        <v>74</v>
-      </c>
-      <c r="H108">
-        <v>70</v>
-      </c>
-      <c r="I108">
-        <v>75</v>
-      </c>
-      <c r="J108">
-        <v>80</v>
-      </c>
-      <c r="K108">
-        <v>76</v>
-      </c>
-      <c r="L108">
-        <v>81</v>
-      </c>
-      <c r="M108">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>380</v>
-      </c>
-      <c r="C109">
-        <v>105</v>
-      </c>
-      <c r="D109">
-        <v>74</v>
-      </c>
-      <c r="E109">
-        <v>79</v>
-      </c>
-      <c r="F109">
-        <v>75</v>
-      </c>
-      <c r="G109">
-        <v>80</v>
-      </c>
-      <c r="H109">
-        <v>76</v>
-      </c>
-      <c r="I109">
-        <v>81</v>
-      </c>
-      <c r="J109">
-        <v>86</v>
-      </c>
-      <c r="K109">
-        <v>82</v>
-      </c>
-      <c r="L109">
-        <v>87</v>
-      </c>
-      <c r="M109">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>108</v>
-      </c>
-      <c r="B110">
-        <v>310</v>
-      </c>
-      <c r="C110">
-        <v>120</v>
-      </c>
-      <c r="D110">
-        <v>65</v>
-      </c>
-      <c r="E110">
-        <v>70</v>
-      </c>
-      <c r="F110">
-        <v>66</v>
-      </c>
-      <c r="G110">
-        <v>71</v>
-      </c>
-      <c r="H110">
-        <v>67</v>
-      </c>
-      <c r="I110">
-        <v>72</v>
-      </c>
-      <c r="J110">
-        <v>77</v>
-      </c>
-      <c r="K110">
-        <v>73</v>
-      </c>
-      <c r="L110">
-        <v>78</v>
-      </c>
-      <c r="M110">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>109</v>
-      </c>
-      <c r="B111">
-        <v>370</v>
-      </c>
-      <c r="C111">
-        <v>180</v>
-      </c>
-      <c r="D111">
-        <v>75</v>
-      </c>
-      <c r="E111">
-        <v>80</v>
-      </c>
-      <c r="F111">
-        <v>76</v>
-      </c>
-      <c r="G111">
-        <v>81</v>
-      </c>
-      <c r="H111">
-        <v>77</v>
-      </c>
-      <c r="I111">
-        <v>82</v>
-      </c>
-      <c r="J111">
-        <v>87</v>
-      </c>
-      <c r="K111">
-        <v>83</v>
-      </c>
-      <c r="L111">
-        <v>88</v>
-      </c>
-      <c r="M111">
-        <v>74</v>
+      <c r="N102">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -5499,31 +5508,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2AA7CC-E4F4-4113-952C-715A94BCEB78}">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5534,7 +5543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5545,7 +5554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5556,7 +5565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5567,7 +5576,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5578,7 +5587,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5589,7 +5598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5600,7 +5609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5611,7 +5620,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5622,7 +5631,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5633,7 +5642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5644,7 +5653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5655,7 +5664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5666,7 +5675,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5677,7 +5686,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5688,7 +5697,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5699,7 +5708,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5710,7 +5719,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5721,7 +5730,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5732,7 +5741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5740,21 +5749,21 @@
         <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
         <v>53</v>
       </c>
-      <c r="C22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5762,21 +5771,21 @@
         <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
         <v>56</v>
       </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5787,7 +5796,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5798,7 +5807,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5809,7 +5818,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5820,7 +5829,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5831,7 +5840,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5842,7 +5851,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5853,7 +5862,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5864,7 +5873,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5875,7 +5884,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5883,21 +5892,21 @@
         <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
         <v>77</v>
       </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5905,832 +5914,733 @@
         <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>86</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C48" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C55" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="C58" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="C61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C65" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="C68" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C69" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="C72" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C74" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C76" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C77" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C79" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C80" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C81" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="C85" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C86" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="C87" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="C88" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="C91" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="C92" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="C93" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="C94" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>69</v>
+        <v>169</v>
       </c>
       <c r="C95" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>91</v>
+        <v>171</v>
       </c>
       <c r="C96" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>141</v>
+        <v>173</v>
       </c>
       <c r="C97" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="C98" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="C99" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="C100" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="C102" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>150</v>
-      </c>
-      <c r="C103" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>151</v>
-      </c>
-      <c r="C104" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>152</v>
-      </c>
-      <c r="C105" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>65</v>
-      </c>
-      <c r="C106" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>154</v>
-      </c>
-      <c r="C107" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>156</v>
-      </c>
-      <c r="C108" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>157</v>
-      </c>
-      <c r="C109" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>159</v>
-      </c>
-      <c r="C110" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>67</v>
-      </c>
-      <c r="C111" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/example_base.xlsx
+++ b/example_base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1de75ab757d4e5e4/Pulpit/studia/swd/projekt/Trip-selection-support-system/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programowanie\SEM_5_SWD\koncowy projekt\Trip-selection-support-system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{067FD9B5-9A6A-4DED-AC52-B537685AD645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CBF99A3-0BBA-4867-A38D-339A82862D5A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68110EE2-145A-4EBF-8877-5BAEF5EE5F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{82038EAF-E625-447E-8475-976217D15C54}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{82038EAF-E625-447E-8475-976217D15C54}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Miasto</t>
   </si>
   <si>
-    <t>Minimalny czas podróży (min)</t>
-  </si>
-  <si>
     <t>Cena za dobę za osobę (PLN)</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Zabytki i kultura</t>
   </si>
   <si>
-    <t>Parki Narodowe</t>
-  </si>
-  <si>
     <t>Nowy Jork</t>
   </si>
   <si>
@@ -603,6 +597,12 @@
   </si>
   <si>
     <t>Malta</t>
+  </si>
+  <si>
+    <t>Maksymalny czas podróży (min)</t>
+  </si>
+  <si>
+    <t>Natura i Parki Narodowe</t>
   </si>
 </sst>
 </file>
@@ -995,68 +995,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0D82785-369F-4861-81B1-363C2DA20361}">
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P106" sqref="P106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.54296875" customWidth="1"/>
-    <col min="4" max="4" width="10.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="13" max="13" width="10.81640625" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1100,7 +1101,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1188,7 +1189,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1276,7 +1277,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1320,7 +1321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1408,7 +1409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1584,7 +1585,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1804,7 +1805,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1892,7 +1893,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2024,7 +2025,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2112,7 +2113,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2156,7 +2157,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -2244,7 +2245,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -2332,7 +2333,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -2376,7 +2377,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -2464,7 +2465,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2552,7 +2553,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2596,7 +2597,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2728,7 +2729,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2772,7 +2773,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2816,7 +2817,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2860,7 +2861,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2904,7 +2905,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2948,7 +2949,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2992,7 +2993,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -3080,7 +3081,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -3124,7 +3125,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -3212,7 +3213,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -3256,7 +3257,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -3344,7 +3345,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -3476,7 +3477,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -3520,7 +3521,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -3564,7 +3565,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -3652,7 +3653,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -3784,7 +3785,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3872,7 +3873,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3916,7 +3917,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4004,7 +4005,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4048,7 +4049,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4092,7 +4093,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4180,7 +4181,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4224,7 +4225,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4312,7 +4313,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4356,7 +4357,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4400,7 +4401,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4444,7 +4445,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4488,7 +4489,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4532,7 +4533,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4576,7 +4577,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4620,7 +4621,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4664,7 +4665,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4708,7 +4709,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4752,7 +4753,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4796,7 +4797,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4840,7 +4841,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -4884,7 +4885,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -4928,7 +4929,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -4972,7 +4973,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5016,7 +5017,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5060,7 +5061,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5104,7 +5105,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5148,7 +5149,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5192,7 +5193,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5236,7 +5237,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5280,7 +5281,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5324,7 +5325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5368,7 +5369,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5412,7 +5413,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5456,7 +5457,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5510,1137 +5511,1137 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D2AA7CC-E4F4-4113-952C-715A94BCEB78}">
   <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C64" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C67" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C69" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C70" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C71" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C73" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C75" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C77" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C78" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C79" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C80" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C81" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C82" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C83" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C84" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C85" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C86" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C87" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C88" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C89" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C90" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C91" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C92" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C93" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C94" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C95" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C96" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C97" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C98" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C100" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C101" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
